--- a/daemon/frontend/test/data.test.xlsx
+++ b/daemon/frontend/test/data.test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,36 +20,324 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">IMP RDC Couleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100.12.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMP Accueil NB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100.12.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMP RDC NB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100.12.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copieur Salle de reunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100.12.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP2055 Sylvie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.100.12.25</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t xml:space="preserve">imp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFD Couloir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.200.7.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFD Detente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.200.7.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFD Reprographie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.200.7.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFD Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.200.7.103</t>
   </si>
 </sst>
 </file>
@@ -146,16 +434,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -165,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>9105</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -176,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>9109</v>
+        <v>9101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -187,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>9135</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>9102</v>
+        <v>9103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -209,7 +494,523 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>9105</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>9111</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>9112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>9122</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>9125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>9129</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>9135</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>9137</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>9140</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>9144</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>9146</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>9148</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
